--- a/src/test/resources/data/input.xlsx
+++ b/src/test/resources/data/input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97254\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97254\eclipse-workspace\com.Saucedemo\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ADE5CE-946E-4459-9424-5F625EAB57B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA8C5B7-76D7-411D-8121-9F7AEFBA9EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F20E8BD-2CD0-4B0E-ACB4-EEF3D1F422DB}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
-    <t>userName</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>locked_out_user</t>
+  </si>
+  <si>
+    <t>username</t>
   </si>
 </sst>
 </file>
@@ -397,9 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89308D35-4057-46C1-A37D-A25D65B3620D}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -409,15 +407,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>12345</v>
@@ -425,26 +423,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
